--- a/INTLINE/data/158/JREI/Nationwide_historical.xlsx
+++ b/INTLINE/data/158/JREI/Nationwide_historical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\INTLINE\data\158\JREI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\INTLINE\INTLINE\data\158\JREI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147ABC47-4F59-4A95-8BC1-6AB6A6D6D3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27519E47-927E-42EF-930C-7C39B9028F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="4635" windowWidth="23880" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nationwide" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Residential</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Sep.2021</t>
+  </si>
+  <si>
+    <t>Mar.2022</t>
   </si>
 </sst>
 </file>
@@ -534,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -890,6 +893,26 @@
         <v>92.6</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4">
+        <v>87.9</v>
+      </c>
+      <c r="C18" s="4">
+        <v>90.7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="E18" s="4">
+        <v>88.9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>88.9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
